--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOP7.4.t_short_HighestDemandInReachableArea.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOP7.4.t_short_HighestDemandInReachableArea.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t xml:space="preserve">File: </t>
   </si>
@@ -210,101 +210,36 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W13" t="s">
-        <v>11</v>
-      </c>
-      <c r="X13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="s">
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
         <v>11</v>
       </c>
     </row>
